--- a/backend/output_timetables/sem7_CSE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_CSE_post_mid_timetable.xlsx
@@ -11,6 +11,11 @@
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Verification_A" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Verification_B" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LTPSC_Compliance" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Executive_Summary" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Course_Summary" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Distribution_Logic" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="All_Courses_Overview" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1046,7 +1051,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1093,7 +1098,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1253,7 +1258,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1300,7 +1305,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1378,6 +1383,4626 @@
       <c r="I4" t="inlineStr">
         <is>
           <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-13 16:20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 0, Elective: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0/2 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/35</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Utilization: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>17.1%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A: 17.1%, B: 17.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Score: 29.1/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Practicals/Week</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Inclusion Reasoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Reinforcement learning</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Dibyajyothi</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CS367</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Image processing and computer vision</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>health care data analytics</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Girish G N</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Chinmayananda A</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Hands on CMOS analog and RF circuit design</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Usability testing</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Aswath Babu</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>DevOPS and its application</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Shirshendu Layek</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Agentic AI</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Sunil Saumya</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Information retrieval</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Krishnendu</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cloud SRE and security</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Malay Kumar</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CS474</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Software defined network</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>AI for cybersecurity</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Finance and accounting</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Anushree</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Operation research</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Energy efficient neural networks</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Jagadish D N</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CS498</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Mini Project</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0-0-0-8-2</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Animesh Roy, Pramod Yelmewad</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Scheduled In</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Logic Applied</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>In Pre-Mid</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>In Post-Mid</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Reinforcement learning</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS367</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Image processing and computer vision</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>health care data analytics</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hands on CMOS analog and RF circuit design</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>7</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Usability testing</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DevOPS and its application</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Agentic AI</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Information retrieval</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>7</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cloud SRE and security</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CS474</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Software defined network</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AI for cybersecurity</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>7</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Finance and accounting</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>7</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Operation research</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>7</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Energy efficient neural networks</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS498</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Mini Project</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>7</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Reinforcement learning</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Dibyajyothi</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS367</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Image processing and computer vision</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>health care data analytics</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Girish G N</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Chinmayananda A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hands on CMOS analog and RF circuit design</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Usability testing</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Aswath Babu</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DevOPS and its application</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Shirshendu Layek</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Agentic AI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Sunil Saumya</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Information retrieval</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Krishnendu</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cloud SRE and security</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>7</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Malay Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CS474</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Software defined network</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>7</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AI for cybersecurity</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Finance and accounting</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Anushree</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Operation research</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>7</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Energy efficient neural networks</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Jagadish D N</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS498</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Mini Project</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>7</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Animesh Roy, Pramod Yelmewad</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>7</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Reinforcement learning</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>7</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Dibyajyothi</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CS367</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Image processing and computer vision</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>7</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>health care data analytics</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>7</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Girish G N</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>7</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Chinmayananda A</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Hands on CMOS analog and RF circuit design</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>7</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Usability testing</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>7</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>7</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Aswath Babu</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DevOPS and its application</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>7</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Shirshendu Layek</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Agentic AI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>7</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Sunil Saumya</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Information retrieval</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>7</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Krishnendu</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Cloud SRE and security</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>7</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Malay Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CS474</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Software defined network</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>7</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>AI for cybersecurity</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>7</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Finance and accounting</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>7</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Anushree</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Operation research</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>7</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Energy efficient neural networks</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>7</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Jagadish D N</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CS498</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Mini Project</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>7</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Animesh Roy, Pramod Yelmewad</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_CSE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_CSE_post_mid_timetable.xlsx
@@ -4481,7 +4481,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C102, C202, L404, L405</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004, C104, C203, L405, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004, C101, C303, L406, L407</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004, C305, L404, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004, L402, L405</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004, L403, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004, L404, L407</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -5592,7 +5592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5688,7 +5688,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -5877,22 +5877,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -5940,22 +5940,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -6003,22 +6003,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -6066,22 +6066,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -6099,7 +6099,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -6129,22 +6129,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I9" t="b">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -6192,22 +6192,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I10" t="b">
@@ -6225,7 +6225,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -6255,22 +6255,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I11" t="b">
@@ -6288,7 +6288,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -6318,22 +6318,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -6381,22 +6381,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I13" t="b">
@@ -6414,7 +6414,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -6444,22 +6444,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I14" t="b">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -6507,7 +6507,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -6696,7 +6696,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -6759,7 +6759,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -6822,7 +6822,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -7064,7 +7064,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -7190,7 +7190,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -7205,17 +7205,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -7233,7 +7233,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -7268,17 +7268,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -7296,7 +7296,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -7316,7 +7316,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -7331,17 +7331,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -7359,7 +7359,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -7379,7 +7379,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -7394,17 +7394,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -7422,7 +7422,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -7442,7 +7442,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -7694,7 +7694,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -7757,7 +7757,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -7820,7 +7820,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -7946,7 +7946,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -8009,7 +8009,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -8072,7 +8072,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -8135,7 +8135,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -8308,2652 +8308,6 @@
         </is>
       </c>
       <c r="M43" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>7</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>7</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>7</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>7</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>7</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>7</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>7</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>7</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>7</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>7</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>7</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>7</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>7</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>7</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>7</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>7</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>7</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>7</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>7</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>7</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>7</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>7</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>7</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>7</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>7</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>7</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>7</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>7</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>7</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>7</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>7</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>7</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>7</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>7</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>7</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>7</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>7</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>7</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>7</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>7</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>7</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>7</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
         <is>
           <t>CS473</t>
         </is>

--- a/backend/output_timetables/sem7_CSE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_CSE_post_mid_timetable.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,17 +481,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -506,24 +506,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -545,118 +545,118 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 (Tutorial)</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B6 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,30 +673,94 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -2488,11 +2552,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC462, EC465, ASD352, PH454, DE451</t>
+          <t>EC462, EC465, ASD352, PH454</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2566,7 +2630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2878,7 +2942,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -2913,7 +2977,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -2948,7 +3012,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -2983,7 +3047,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -2999,26 +3063,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mon 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -3039,7 +3103,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3074,7 +3138,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3109,7 +3173,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3131,41 +3195,6 @@
         </is>
       </c>
       <c r="G16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>4</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -4481,7 +4510,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -4498,7 +4527,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -4515,7 +4544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4561,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C002, C003, C004</t>
         </is>
       </c>
     </row>
@@ -4549,7 +4578,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C002, C003, C101</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4595,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C002, C004, C101</t>
         </is>
       </c>
     </row>
@@ -4583,7 +4612,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C003, C004, C101</t>
         </is>
       </c>
     </row>
@@ -4598,7 +4627,11 @@
           <t>EC462</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C002, C004, C102, C302</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4611,7 +4644,11 @@
           <t>EC465</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C003, C004, C303, L408</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4624,7 +4661,11 @@
           <t>ASD352</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C002, C003, C004, C304, C305</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4637,7 +4678,11 @@
           <t>PH454</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C001, C002, C003, C004, C101, C104</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4650,7 +4695,11 @@
           <t>DE451</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C001, C101, C205, L407</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4663,7 +4712,11 @@
           <t>CS470</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C001, C004, C205</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4676,7 +4729,11 @@
           <t>DS102</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C003, C004, C101, C302</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4689,7 +4746,11 @@
           <t>MA452</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C002, C003, C101, C303</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4702,7 +4763,11 @@
           <t>EC463</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C001, C002, C202, C204</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4715,7 +4780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4758,17 +4823,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -4783,24 +4848,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4822,118 +4887,118 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 (Tutorial)</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B6 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -4950,30 +5015,94 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -5592,7 +5721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:N135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5666,6 +5795,11 @@
           <t>course</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -5693,17 +5827,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -5721,12 +5855,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>DS456</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5756,17 +5895,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -5784,12 +5923,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>EC456</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5819,19 +5963,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="b">
         <v>0</v>
       </c>
@@ -5847,12 +5987,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>DS401</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5872,27 +6017,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -5905,17 +6050,22 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5935,12 +6085,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -5968,7 +6118,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -5978,7 +6128,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5998,27 +6153,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -6031,17 +6186,22 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6061,27 +6221,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -6094,17 +6254,22 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6124,7 +6289,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -6134,19 +6299,15 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="b">
         <v>0</v>
       </c>
@@ -6157,17 +6318,22 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6192,24 +6358,20 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="b">
         <v>0</v>
       </c>
@@ -6220,17 +6382,22 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6255,22 +6422,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I11" t="b">
@@ -6283,17 +6450,22 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6313,12 +6485,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -6346,7 +6518,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -6356,7 +6528,12 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6376,27 +6553,27 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I13" t="b">
@@ -6409,17 +6586,22 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6439,27 +6621,27 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I14" t="b">
@@ -6477,12 +6659,17 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6502,7 +6689,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -6512,17 +6699,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -6535,17 +6722,22 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6565,7 +6757,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -6575,19 +6767,15 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="b">
         <v>0</v>
       </c>
@@ -6598,17 +6786,22 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6633,22 +6826,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -6661,17 +6854,22 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6696,22 +6894,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -6724,17 +6922,22 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6754,7 +6957,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -6764,19 +6967,15 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="b">
         <v>0</v>
       </c>
@@ -6787,17 +6986,22 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6817,29 +7021,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="b">
         <v>0</v>
       </c>
@@ -6855,12 +7055,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6880,27 +7085,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -6918,12 +7123,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6943,12 +7153,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -6986,7 +7196,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7001,32 +7216,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -7039,17 +7254,22 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7064,17 +7284,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -7102,7 +7322,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -7112,7 +7332,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7127,32 +7352,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -7165,17 +7390,22 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7190,32 +7420,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -7233,12 +7463,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7253,34 +7488,30 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="b">
         <v>0</v>
       </c>
@@ -7296,12 +7527,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7316,12 +7552,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -7331,17 +7567,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -7354,17 +7590,22 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7379,12 +7620,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7417,7 +7658,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -7427,7 +7668,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7442,32 +7688,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -7480,17 +7726,22 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7505,32 +7756,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -7543,17 +7794,22 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7568,34 +7824,30 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="b">
         <v>0</v>
       </c>
@@ -7606,17 +7858,22 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7631,32 +7888,32 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -7669,17 +7926,22 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7694,17 +7956,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -7732,7 +7994,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -7742,7 +8004,12 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7757,32 +8024,32 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -7795,17 +8062,22 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7820,32 +8092,32 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -7858,17 +8130,22 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7883,34 +8160,30 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="b">
         <v>0</v>
       </c>
@@ -7921,17 +8194,22 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7946,17 +8224,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -7984,7 +8262,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -7994,7 +8272,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8009,32 +8292,32 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -8047,17 +8330,22 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8072,12 +8360,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -8087,17 +8375,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -8110,17 +8398,22 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8135,12 +8428,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -8150,19 +8443,15 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="b">
         <v>0</v>
       </c>
@@ -8173,17 +8462,22 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8198,32 +8492,32 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -8236,17 +8530,22 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8261,55 +8560,6252 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>7</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>7</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>7</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>7</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>7</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>7</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>7</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>7</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>7</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>7</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>7</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>7</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>7</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>7</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>7</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>7</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>7</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>7</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>7</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>7</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>7</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>7</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>7</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>7</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>7</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>7</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>7</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>7</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>7</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>7</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>7</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>7</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>7</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>7</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>7</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>7</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>7</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I90" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>7</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>Thu</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I91" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>7</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>7</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I93" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>7</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
         <is>
           <t>Auditorium</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>Audio/Video System</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="I94" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L94" t="inlineStr">
         <is>
           <t>C004</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="M94" t="inlineStr">
         <is>
           <t>CS473</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>7</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>7</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I96" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>7</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I97" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>7</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I98" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>7</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>7</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I100" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>7</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I101" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>7</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I102" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>7</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I103" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>7</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>7</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>7</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I106" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>7</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I107" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>7</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I108" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>7</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I109" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>7</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I110" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>7</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I111" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>7</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I112" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>7</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I113" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>7</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I114" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>7</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I115" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>7</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I116" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>7</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>7</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I118" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>7</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I119" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>7</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I120" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>7</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>7</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I122" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>7</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>7</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>7</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>7</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>7</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I127" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>7</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>7</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I129" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>7</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I130" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>7</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>7</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>7</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>7</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>7</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -8691,7 +15187,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 11:33</t>
+          <t>2026-01-19 12:24</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8755,7 +15251,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0/36</t>
+          <t>0/16</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -8777,12 +15273,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>28.6%</t>
+          <t>22.2%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 28.6%, B: 28.6%</t>
+          <t>A: 22.2%, B: 22.2%</t>
         </is>
       </c>
     </row>
@@ -8804,7 +15300,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 32.6/100</t>
+          <t>Score: 30.7/100</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_CSE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_CSE_post_mid_timetable.xlsx
@@ -4510,7 +4510,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -4544,7 +4544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001, C002, C003, C004</t>
+          <t>C001, C003, C101</t>
         </is>
       </c>
     </row>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001, C002, C003, C101</t>
+          <t>C002, C003, C004, C101</t>
         </is>
       </c>
     </row>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C001, C002, C004, C101</t>
+          <t>C001, C003, C004</t>
         </is>
       </c>
     </row>
@@ -4612,7 +4612,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C001, C003, C004, C101</t>
+          <t>C002, C003, C101</t>
         </is>
       </c>
     </row>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C002, C004, C102, C302</t>
+          <t>C002, C003, C004, C302, C303</t>
         </is>
       </c>
     </row>
@@ -4646,7 +4646,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C003, C004, C303, L408</t>
+          <t>C002, C003, C004, C101, C303, C304</t>
         </is>
       </c>
     </row>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C002, C003, C004, C304, C305</t>
+          <t>C001, C002, C004, C304, C305, L406</t>
         </is>
       </c>
     </row>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C001, C002, C003, C004, C101, C104</t>
+          <t>C001, C003, C101, C205, C305</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C001, C101, C205, L407</t>
+          <t>C003, C101, C102, C205, C302, L402</t>
         </is>
       </c>
     </row>
@@ -4714,7 +4714,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C001, C004, C205</t>
+          <t>C002, C003, C004, C205, L402</t>
         </is>
       </c>
     </row>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C003, C004, C101, C302</t>
+          <t>C002, C003, C004, C302, L403</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C002, C003, C101, C303</t>
+          <t>C002, C004, C101, C303, L406</t>
         </is>
       </c>
     </row>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C001, C002, C202, C204</t>
+          <t>C001, C204, C304, L408</t>
         </is>
       </c>
     </row>
@@ -5832,7 +5832,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -5855,7 +5855,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -5903,11 +5903,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="b">
         <v>0</v>
       </c>
@@ -5923,7 +5919,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -5963,15 +5959,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -6022,7 +6022,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6090,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -6133,7 +6133,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6158,22 +6158,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -6201,7 +6201,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -6269,7 +6269,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6294,20 +6294,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I9" t="b">
         <v>0</v>
       </c>
@@ -6323,7 +6327,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -6333,7 +6337,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6363,15 +6367,19 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I10" t="b">
         <v>0</v>
       </c>
@@ -6387,7 +6395,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -6427,12 +6435,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -6455,7 +6463,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -6568,7 +6576,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -6591,7 +6599,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -6636,7 +6644,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -6659,7 +6667,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -6707,11 +6715,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="b">
         <v>0</v>
       </c>
@@ -6727,7 +6731,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -6767,15 +6771,19 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I16" t="b">
         <v>0</v>
       </c>
@@ -6791,7 +6799,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -6821,12 +6829,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -6836,7 +6844,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -6854,17 +6862,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -6889,27 +6897,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -6922,17 +6930,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -6957,25 +6965,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I19" t="b">
         <v>0</v>
       </c>
@@ -6986,17 +6998,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -7021,25 +7033,29 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I20" t="b">
         <v>0</v>
       </c>
@@ -7050,22 +7066,22 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7090,22 +7106,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -7118,22 +7134,22 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7158,22 +7174,22 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -7186,22 +7202,22 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7226,22 +7242,22 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -7254,22 +7270,22 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7289,27 +7305,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -7322,17 +7338,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -7357,22 +7373,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -7390,17 +7406,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -7425,7 +7441,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -7458,7 +7474,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -7468,7 +7484,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -7493,7 +7509,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -7522,7 +7538,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -7532,7 +7548,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -7557,27 +7573,27 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -7590,17 +7606,17 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -7625,27 +7641,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -7658,22 +7674,22 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7693,12 +7709,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -7708,7 +7724,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -7726,22 +7742,22 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7761,12 +7777,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -7779,11 +7795,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="b">
         <v>0</v>
       </c>
@@ -7794,22 +7806,22 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7829,25 +7841,29 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I32" t="b">
         <v>0</v>
       </c>
@@ -7858,22 +7874,22 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7893,29 +7909,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="b">
         <v>0</v>
       </c>
@@ -7926,17 +7938,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -7961,27 +7973,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -7994,17 +8006,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -8029,27 +8041,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -8062,17 +8074,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -8097,12 +8109,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -8112,7 +8124,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -8130,17 +8142,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -8165,25 +8177,29 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I37" t="b">
         <v>0</v>
       </c>
@@ -8199,17 +8215,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -8229,27 +8245,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -8262,22 +8278,22 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -8297,12 +8313,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -8312,7 +8328,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -8330,22 +8346,22 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -8365,12 +8381,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -8383,11 +8399,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="b">
         <v>0</v>
       </c>
@@ -8398,22 +8410,22 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -8433,25 +8445,29 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I41" t="b">
         <v>0</v>
       </c>
@@ -8462,22 +8478,22 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -8497,22 +8513,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -8530,17 +8546,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -8565,27 +8581,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -8598,17 +8614,17 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -8633,12 +8649,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -8653,7 +8669,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -8666,17 +8682,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -8701,12 +8717,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -8721,7 +8737,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -8734,17 +8750,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -8769,27 +8785,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -8802,22 +8818,22 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -8837,27 +8853,27 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -8875,17 +8891,17 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -8905,22 +8921,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -8943,17 +8959,17 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -8973,29 +8989,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="b">
         <v>0</v>
       </c>
@@ -9011,17 +9023,17 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9041,27 +9053,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -9074,22 +9086,22 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9109,22 +9121,22 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -9147,17 +9159,17 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9177,27 +9189,27 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -9215,17 +9227,17 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9245,29 +9257,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="b">
         <v>0</v>
       </c>
@@ -9283,17 +9291,17 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9313,12 +9321,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -9351,17 +9359,17 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9381,27 +9389,27 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I55" t="b">
@@ -9419,12 +9427,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -9449,27 +9457,27 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I56" t="b">
@@ -9487,17 +9495,17 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9517,12 +9525,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -9532,14 +9540,10 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="b">
         <v>0</v>
       </c>
@@ -9555,17 +9559,17 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9585,22 +9589,22 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -9623,17 +9627,17 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9653,25 +9657,29 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I59" t="b">
         <v>0</v>
       </c>
@@ -9687,17 +9695,17 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9717,22 +9725,22 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -9755,17 +9763,17 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9785,27 +9793,27 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I61" t="b">
@@ -9818,17 +9826,17 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -9853,29 +9861,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="b">
         <v>0</v>
       </c>
@@ -9886,17 +9890,17 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -9921,12 +9925,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -9941,7 +9945,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I63" t="b">
@@ -9954,17 +9958,17 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -9989,12 +9993,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -10009,7 +10013,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I64" t="b">
@@ -10022,17 +10026,17 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -10062,22 +10066,22 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I65" t="b">
@@ -10095,7 +10099,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -10105,7 +10109,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10130,22 +10134,22 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I66" t="b">
@@ -10163,7 +10167,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -10173,7 +10177,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10198,22 +10202,22 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I67" t="b">
@@ -10231,7 +10235,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -10241,7 +10245,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10266,20 +10270,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I68" t="b">
         <v>0</v>
       </c>
@@ -10295,7 +10303,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -10305,7 +10313,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10340,7 +10348,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -10363,7 +10371,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -10411,11 +10419,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="b">
         <v>0</v>
       </c>
@@ -10431,7 +10435,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -10471,15 +10475,19 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I71" t="b">
         <v>0</v>
       </c>
@@ -10495,7 +10503,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -10530,7 +10538,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -10563,7 +10571,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -10573,7 +10581,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10598,22 +10606,22 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I73" t="b">
@@ -10631,7 +10639,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -10641,7 +10649,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10666,22 +10674,22 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I74" t="b">
@@ -10699,7 +10707,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -10709,7 +10717,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10734,22 +10742,22 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I75" t="b">
@@ -10767,7 +10775,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -10777,7 +10785,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10802,7 +10810,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -10812,10 +10820,14 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I76" t="b">
         <v>0</v>
       </c>
@@ -10831,7 +10843,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -10841,7 +10853,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10871,15 +10883,19 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I77" t="b">
         <v>0</v>
       </c>
@@ -10895,7 +10911,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -10935,17 +10951,17 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I78" t="b">
@@ -10963,7 +10979,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -11003,17 +11019,17 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I79" t="b">
@@ -11031,7 +11047,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -11076,7 +11092,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -11099,7 +11115,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -11144,7 +11160,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -11167,7 +11183,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -11215,11 +11231,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="b">
         <v>0</v>
       </c>
@@ -11235,7 +11247,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -11275,15 +11287,19 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I83" t="b">
         <v>0</v>
       </c>
@@ -11299,7 +11315,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -11329,27 +11345,27 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I84" t="b">
@@ -11362,17 +11378,17 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -11397,22 +11413,22 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -11430,17 +11446,17 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -11465,25 +11481,29 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I86" t="b">
         <v>0</v>
       </c>
@@ -11494,17 +11514,17 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -11529,27 +11549,27 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I87" t="b">
@@ -11562,22 +11582,22 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11602,22 +11622,22 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I88" t="b">
@@ -11630,22 +11650,22 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11670,20 +11690,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I89" t="b">
         <v>0</v>
       </c>
@@ -11694,22 +11718,22 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11734,7 +11758,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -11749,7 +11773,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I90" t="b">
@@ -11762,22 +11786,22 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11797,12 +11821,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -11812,7 +11836,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -11830,17 +11854,17 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -11865,25 +11889,29 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I92" t="b">
         <v>0</v>
       </c>
@@ -11894,17 +11922,17 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -11929,7 +11957,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -11939,12 +11967,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -11962,17 +11990,17 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -11997,7 +12025,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -12007,19 +12035,15 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="b">
         <v>0</v>
       </c>
@@ -12030,17 +12054,17 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -12065,27 +12089,27 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I95" t="b">
@@ -12098,17 +12122,17 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -12133,12 +12157,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -12148,14 +12172,10 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="b">
         <v>0</v>
       </c>
@@ -12166,22 +12186,22 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12201,22 +12221,22 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -12234,22 +12254,22 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12269,12 +12289,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -12302,7 +12322,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -12312,12 +12332,12 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12337,12 +12357,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -12352,10 +12372,14 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I99" t="b">
         <v>0</v>
       </c>
@@ -12366,22 +12390,22 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12401,29 +12425,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="b">
         <v>0</v>
       </c>
@@ -12434,17 +12454,17 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -12469,22 +12489,22 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -12502,17 +12522,17 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -12537,27 +12557,27 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I102" t="b">
@@ -12570,17 +12590,17 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -12605,27 +12625,27 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I103" t="b">
@@ -12638,17 +12658,17 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -12673,25 +12693,29 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I104" t="b">
         <v>0</v>
       </c>
@@ -12707,17 +12731,17 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12737,12 +12761,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -12752,10 +12776,14 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I105" t="b">
         <v>0</v>
       </c>
@@ -12766,22 +12794,22 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12801,22 +12829,22 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -12834,22 +12862,22 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12869,12 +12897,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -12884,14 +12912,10 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="b">
         <v>0</v>
       </c>
@@ -12902,22 +12926,22 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12937,22 +12961,22 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -12970,22 +12994,22 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -13005,12 +13029,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -13025,7 +13049,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I109" t="b">
@@ -13038,17 +13062,17 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -13073,12 +13097,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -13093,7 +13117,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I110" t="b">
@@ -13106,17 +13130,17 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -13141,12 +13165,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -13174,17 +13198,17 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -13209,27 +13233,27 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I112" t="b">
@@ -13242,17 +13266,17 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -13277,27 +13301,27 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I113" t="b">
@@ -13310,22 +13334,22 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -13345,27 +13369,27 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I114" t="b">
@@ -13383,17 +13407,17 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -13413,12 +13437,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -13428,7 +13452,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -13451,17 +13475,17 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -13481,12 +13505,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -13499,11 +13523,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="b">
         <v>0</v>
       </c>
@@ -13519,17 +13539,17 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -13549,25 +13569,29 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I117" t="b">
         <v>0</v>
       </c>
@@ -13578,22 +13602,22 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -13613,22 +13637,22 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -13651,17 +13675,17 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -13681,29 +13705,25 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="b">
         <v>0</v>
       </c>
@@ -13719,17 +13739,17 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -13749,12 +13769,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -13769,7 +13789,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I120" t="b">
@@ -13787,17 +13807,17 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -13817,22 +13837,22 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -13855,17 +13875,17 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -13885,27 +13905,27 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I122" t="b">
@@ -13923,12 +13943,12 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -13953,27 +13973,27 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I123" t="b">
@@ -13991,17 +14011,17 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -14021,12 +14041,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -14036,7 +14056,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -14059,17 +14079,17 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -14089,12 +14109,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -14107,11 +14127,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="b">
         <v>0</v>
       </c>
@@ -14127,17 +14143,17 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -14157,25 +14173,29 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I126" t="b">
         <v>0</v>
       </c>
@@ -14191,17 +14211,17 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -14221,27 +14241,27 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I127" t="b">
@@ -14259,17 +14279,17 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -14289,12 +14309,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -14304,10 +14324,14 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I128" t="b">
         <v>0</v>
       </c>
@@ -14318,17 +14342,17 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -14353,27 +14377,27 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I129" t="b">
@@ -14386,17 +14410,17 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -14421,29 +14445,25 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="b">
         <v>0</v>
       </c>
@@ -14454,17 +14474,17 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -14489,12 +14509,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -14522,17 +14542,17 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -14562,22 +14582,22 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I132" t="b">
@@ -14595,7 +14615,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -14605,7 +14625,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -14630,7 +14650,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -14640,7 +14660,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -14663,7 +14683,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -14673,7 +14693,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -14698,22 +14718,22 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I134" t="b">
@@ -14731,7 +14751,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -14741,7 +14761,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -14766,7 +14786,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -14805,7 +14825,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_CSE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_CSE_post_mid_timetable.xlsx
@@ -4664,7 +4664,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C004, C101, C102</t>
+          <t>C001, C004</t>
         </is>
       </c>
     </row>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C001, C002, C104, C202</t>
+          <t>C002, C101</t>
         </is>
       </c>
     </row>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C102, C202, C205</t>
+          <t>C102, C205</t>
         </is>
       </c>
     </row>
@@ -4715,7 +4715,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C101, C104, C203, C204</t>
+          <t>C104, C202</t>
         </is>
       </c>
     </row>
@@ -4732,7 +4732,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C002, C004, C203, C204</t>
+          <t>C203, C204</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C002, C004, C102</t>
+          <t>C004, C102</t>
         </is>
       </c>
     </row>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C001, C101, C104</t>
+          <t>C001, C104</t>
         </is>
       </c>
     </row>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C002, C102, C202</t>
+          <t>C002, C202</t>
         </is>
       </c>
     </row>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C101, C104, C203</t>
+          <t>C101, C203</t>
         </is>
       </c>
     </row>
@@ -6105,19 +6105,15 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="b">
         <v>0</v>
       </c>
@@ -6133,7 +6129,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -6209,7 +6205,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -6343,7 +6339,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -6361,7 +6357,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -6409,17 +6405,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -6437,7 +6433,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -7017,17 +7013,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -7045,7 +7041,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -7093,15 +7089,19 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -7317,19 +7317,15 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="b">
         <v>0</v>
       </c>
@@ -7345,7 +7341,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -7421,7 +7417,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -7555,7 +7551,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -7573,7 +7569,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -7621,17 +7617,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -7649,7 +7645,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -8533,19 +8529,15 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="b">
         <v>0</v>
       </c>
@@ -8561,7 +8553,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -8609,15 +8601,19 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
@@ -8633,7 +8629,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -8785,7 +8781,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -8833,17 +8829,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -8861,7 +8857,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -8909,17 +8905,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -8937,7 +8933,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -8985,15 +8981,19 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -9209,17 +9209,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -9285,15 +9285,19 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
@@ -9309,7 +9313,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -9357,12 +9361,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -9385,7 +9389,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -9443,7 +9447,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -9461,7 +9465,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -9733,15 +9737,19 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
@@ -9757,7 +9765,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -10633,17 +10641,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -10661,7 +10669,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -10709,19 +10717,15 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="b">
         <v>0</v>
       </c>
@@ -10737,7 +10741,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -10785,12 +10789,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -10813,7 +10817,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -10889,7 +10893,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -10937,15 +10941,19 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
@@ -10961,7 +10969,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -12137,17 +12145,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J85" t="b">
@@ -12165,7 +12173,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -12213,12 +12221,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -12241,7 +12249,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -12317,7 +12325,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -12375,7 +12383,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J88" t="b">
@@ -12393,7 +12401,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -12469,7 +12477,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -12517,17 +12525,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J90" t="b">
@@ -12545,7 +12553,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -12593,19 +12601,15 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="b">
         <v>0</v>
       </c>
@@ -12621,7 +12625,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -12669,12 +12673,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -12697,7 +12701,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -12773,7 +12777,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -12821,17 +12825,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J94" t="b">
@@ -12849,7 +12853,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -12897,19 +12901,15 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="b">
         <v>0</v>
       </c>
@@ -12925,7 +12925,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -12973,12 +12973,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -13001,7 +13001,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -13059,7 +13059,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J97" t="b">
@@ -13077,7 +13077,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -13472,7 +13472,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 01:05</t>
+          <t>2026-01-26 12:46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/backend/output_timetables/sem7_CSE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_CSE_post_mid_timetable.xlsx
@@ -4545,7 +4545,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001, C102</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C104</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004, C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C002, C202</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C101, C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002, C101</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C102, C205</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -4715,7 +4715,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C104, C202</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -4732,7 +4732,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C203, C204</t>
+          <t>C101, C202</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C004, C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C001, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C002, C202</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C101, C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -6105,15 +6105,19 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
@@ -6129,7 +6133,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -6205,7 +6209,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -6281,7 +6285,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -6357,7 +6361,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -6415,7 +6419,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -6433,7 +6437,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -6509,7 +6513,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -6585,7 +6589,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -6661,7 +6665,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -6719,7 +6723,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -6737,7 +6741,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -7041,7 +7045,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -7117,7 +7121,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -7193,7 +7197,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -7251,7 +7255,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -7269,7 +7273,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -7317,15 +7321,19 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
@@ -7341,7 +7349,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -7417,7 +7425,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -7493,7 +7501,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -7569,7 +7577,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -7627,7 +7635,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -7645,7 +7653,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -7949,7 +7957,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -8025,7 +8033,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -8101,7 +8109,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -8159,7 +8167,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -8177,7 +8185,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -8253,7 +8261,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -8329,7 +8337,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -8405,7 +8413,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -8463,7 +8471,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -8481,7 +8489,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -8529,15 +8537,19 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
@@ -8553,7 +8565,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -8629,7 +8641,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -8705,7 +8717,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -8781,7 +8793,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -8839,7 +8851,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -8857,7 +8869,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -8933,7 +8945,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -9009,7 +9021,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -9085,7 +9097,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -9143,7 +9155,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -9161,7 +9173,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -9237,7 +9249,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -9313,7 +9325,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -9389,7 +9401,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -9447,7 +9459,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -9465,7 +9477,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -9513,17 +9525,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -9541,7 +9553,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -9589,15 +9601,19 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
@@ -9613,7 +9629,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -9661,12 +9677,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -9689,7 +9705,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -9737,17 +9753,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -9765,7 +9781,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -9813,12 +9829,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -9841,7 +9857,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -9899,7 +9915,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -9917,7 +9933,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -10051,7 +10067,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -10069,7 +10085,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -10117,17 +10133,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J58" t="b">
@@ -10145,7 +10161,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -10193,15 +10209,19 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
@@ -10217,7 +10237,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -10265,12 +10285,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -10293,7 +10313,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -10369,7 +10389,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -10417,17 +10437,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -10445,7 +10465,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -10493,15 +10513,19 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
@@ -10517,7 +10541,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -10565,12 +10589,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -10593,7 +10617,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -10641,17 +10665,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -10669,7 +10693,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -10717,15 +10741,19 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J66" t="b">
         <v>0</v>
       </c>
@@ -10741,7 +10769,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -10789,12 +10817,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -10817,7 +10845,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -10893,7 +10921,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -10941,17 +10969,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -10969,7 +10997,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -11017,12 +11045,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -11045,7 +11073,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -11103,7 +11131,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -11121,7 +11149,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -11255,7 +11283,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -11273,7 +11301,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -11321,17 +11349,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -11349,7 +11377,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -11397,15 +11425,19 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J75" t="b">
         <v>0</v>
       </c>
@@ -11421,7 +11453,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -11469,12 +11501,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -11497,7 +11529,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -11545,17 +11577,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -11573,7 +11605,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -11621,15 +11653,19 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J78" t="b">
         <v>0</v>
       </c>
@@ -11645,7 +11681,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -11693,12 +11729,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -11721,7 +11757,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -11797,7 +11833,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -11845,17 +11881,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -11873,7 +11909,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -11921,15 +11957,19 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J82" t="b">
         <v>0</v>
       </c>
@@ -11945,7 +11985,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -11993,12 +12033,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -12021,7 +12061,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -12097,7 +12137,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -12145,17 +12185,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J85" t="b">
@@ -12173,7 +12213,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -12221,12 +12261,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -12249,7 +12289,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -12307,7 +12347,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J87" t="b">
@@ -12325,7 +12365,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -12459,7 +12499,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J89" t="b">
@@ -12477,7 +12517,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -12525,17 +12565,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J90" t="b">
@@ -12553,7 +12593,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -12601,15 +12641,19 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J91" t="b">
         <v>0</v>
       </c>
@@ -12625,7 +12669,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -12673,12 +12717,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -12701,7 +12745,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -12777,7 +12821,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -12825,17 +12869,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J94" t="b">
@@ -12853,7 +12897,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -12901,15 +12945,19 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J95" t="b">
         <v>0</v>
       </c>
@@ -12925,7 +12973,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -12973,12 +13021,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -13001,7 +13049,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -13077,7 +13125,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -13472,7 +13520,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 12:46</t>
+          <t>2026-01-26 21:32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
